--- a/data/nzd0342/nzd0342.xlsx
+++ b/data/nzd0342/nzd0342.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L627"/>
+  <dimension ref="A1:L634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24116,6 +24116,286 @@
         </is>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:57+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>387.56</v>
+      </c>
+      <c r="C628" t="n">
+        <v>374.4636363636364</v>
+      </c>
+      <c r="D628" t="n">
+        <v>356.48</v>
+      </c>
+      <c r="E628" t="n">
+        <v>359.71</v>
+      </c>
+      <c r="F628" t="n">
+        <v>369.2788888888889</v>
+      </c>
+      <c r="G628" t="n">
+        <v>368.9288888888889</v>
+      </c>
+      <c r="H628" t="n">
+        <v>382.5442857142857</v>
+      </c>
+      <c r="I628" t="n">
+        <v>361.5233333333333</v>
+      </c>
+      <c r="J628" t="n">
+        <v>358.1942857142857</v>
+      </c>
+      <c r="K628" t="n">
+        <v>362.1342857142857</v>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:01:11+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>385.42</v>
+      </c>
+      <c r="C629" t="n">
+        <v>376.0409090909091</v>
+      </c>
+      <c r="D629" t="n">
+        <v>371.22</v>
+      </c>
+      <c r="E629" t="n">
+        <v>365.41</v>
+      </c>
+      <c r="F629" t="n">
+        <v>367.1388888888889</v>
+      </c>
+      <c r="G629" t="n">
+        <v>367.5288888888889</v>
+      </c>
+      <c r="H629" t="n">
+        <v>373.8914285714285</v>
+      </c>
+      <c r="I629" t="n">
+        <v>355.6833333333333</v>
+      </c>
+      <c r="J629" t="n">
+        <v>358.9714285714285</v>
+      </c>
+      <c r="K629" t="n">
+        <v>370.9614285714285</v>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr"/>
+      <c r="C630" t="n">
+        <v>375.9363636363637</v>
+      </c>
+      <c r="D630" t="n">
+        <v>370.4</v>
+      </c>
+      <c r="E630" t="n">
+        <v>370.85</v>
+      </c>
+      <c r="F630" t="n">
+        <v>377.6166666666667</v>
+      </c>
+      <c r="G630" t="n">
+        <v>378.1466666666667</v>
+      </c>
+      <c r="H630" t="n">
+        <v>384.0328571428572</v>
+      </c>
+      <c r="I630" t="n">
+        <v>380.17</v>
+      </c>
+      <c r="J630" t="n">
+        <v>367.2528571428572</v>
+      </c>
+      <c r="K630" t="n">
+        <v>381.5128571428572</v>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-15 22:01:08+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr"/>
+      <c r="C631" t="inlineStr"/>
+      <c r="D631" t="inlineStr"/>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="n">
+        <v>390.0088888888889</v>
+      </c>
+      <c r="G631" t="n">
+        <v>386.0388888888889</v>
+      </c>
+      <c r="H631" t="n">
+        <v>397.1285714285714</v>
+      </c>
+      <c r="I631" t="n">
+        <v>392.3633333333333</v>
+      </c>
+      <c r="J631" t="n">
+        <v>376.9485714285714</v>
+      </c>
+      <c r="K631" t="n">
+        <v>376.0585714285714</v>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:49+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr"/>
+      <c r="C632" t="n">
+        <v>373.8554545454546</v>
+      </c>
+      <c r="D632" t="n">
+        <v>372.3</v>
+      </c>
+      <c r="E632" t="n">
+        <v>369.89</v>
+      </c>
+      <c r="F632" t="n">
+        <v>384.0777777777778</v>
+      </c>
+      <c r="G632" t="n">
+        <v>380.1777777777777</v>
+      </c>
+      <c r="H632" t="n">
+        <v>385.9514285714286</v>
+      </c>
+      <c r="I632" t="n">
+        <v>383.6066666666667</v>
+      </c>
+      <c r="J632" t="n">
+        <v>372.4314285714286</v>
+      </c>
+      <c r="K632" t="n">
+        <v>384.4614285714285</v>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:53+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr"/>
+      <c r="C633" t="n">
+        <v>376.36</v>
+      </c>
+      <c r="D633" t="n">
+        <v>378.64</v>
+      </c>
+      <c r="E633" t="n">
+        <v>372.28</v>
+      </c>
+      <c r="F633" t="n">
+        <v>385.2155555555556</v>
+      </c>
+      <c r="G633" t="n">
+        <v>382.3555555555556</v>
+      </c>
+      <c r="H633" t="n">
+        <v>388.5571428571428</v>
+      </c>
+      <c r="I633" t="n">
+        <v>384.2133333333333</v>
+      </c>
+      <c r="J633" t="n">
+        <v>369.3471428571429</v>
+      </c>
+      <c r="K633" t="n">
+        <v>381.5071428571428</v>
+      </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:01:09+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>388.33</v>
+      </c>
+      <c r="C634" t="n">
+        <v>369.2272727272728</v>
+      </c>
+      <c r="D634" t="n">
+        <v>360.51</v>
+      </c>
+      <c r="E634" t="n">
+        <v>365.72</v>
+      </c>
+      <c r="F634" t="n">
+        <v>375.1133333333333</v>
+      </c>
+      <c r="G634" t="n">
+        <v>372.5033333333333</v>
+      </c>
+      <c r="H634" t="n">
+        <v>383.4857142857143</v>
+      </c>
+      <c r="I634" t="n">
+        <v>365.79</v>
+      </c>
+      <c r="J634" t="n">
+        <v>367.7557142857143</v>
+      </c>
+      <c r="K634" t="n">
+        <v>378.9757142857143</v>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24127,7 +24407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B650"/>
+  <dimension ref="A1:B657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30635,6 +30915,76 @@
       </c>
       <c r="B650" t="n">
         <v>0.24</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025-01-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -30803,28 +31153,28 @@
         <v>0.058</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1640211582512502</v>
+        <v>0.1552795711570913</v>
       </c>
       <c r="J2" t="n">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K2" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003019592703396135</v>
+        <v>0.00274735416229055</v>
       </c>
       <c r="M2" t="n">
-        <v>12.31616106257022</v>
+        <v>12.24566348877006</v>
       </c>
       <c r="N2" t="n">
-        <v>516.7182571139481</v>
+        <v>513.1441117990236</v>
       </c>
       <c r="O2" t="n">
-        <v>22.73143763852054</v>
+        <v>22.65268442809866</v>
       </c>
       <c r="P2" t="n">
-        <v>389.2252196432565</v>
+        <v>389.30513762202</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -30880,28 +31230,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02803027189969034</v>
+        <v>0.03369931357099489</v>
       </c>
       <c r="J3" t="n">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K3" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005403916514838958</v>
+        <v>0.0007975579000294442</v>
       </c>
       <c r="M3" t="n">
-        <v>7.169344477556665</v>
+        <v>7.122098757524268</v>
       </c>
       <c r="N3" t="n">
-        <v>80.59704164620045</v>
+        <v>79.79051689341851</v>
       </c>
       <c r="O3" t="n">
-        <v>8.977585513165577</v>
+        <v>8.932553772209744</v>
       </c>
       <c r="P3" t="n">
-        <v>370.9888253846793</v>
+        <v>370.9339913825915</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -30957,28 +31307,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2140649514934541</v>
+        <v>-0.2032485619752197</v>
       </c>
       <c r="J4" t="n">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K4" t="n">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03078190580929407</v>
+        <v>0.02812175682470797</v>
       </c>
       <c r="M4" t="n">
-        <v>7.220545136764524</v>
+        <v>7.230916143088407</v>
       </c>
       <c r="N4" t="n">
-        <v>79.75164450653105</v>
+        <v>79.75974796049245</v>
       </c>
       <c r="O4" t="n">
-        <v>8.930377623960313</v>
+        <v>8.930831314076672</v>
       </c>
       <c r="P4" t="n">
-        <v>368.6856603546868</v>
+        <v>368.5799784114595</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -31034,28 +31384,28 @@
         <v>0.0622</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1666847903753664</v>
+        <v>-0.1614230597378698</v>
       </c>
       <c r="J5" t="n">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K5" t="n">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02158548946571315</v>
+        <v>0.02064207310841215</v>
       </c>
       <c r="M5" t="n">
-        <v>6.584536586510811</v>
+        <v>6.553496100461532</v>
       </c>
       <c r="N5" t="n">
-        <v>70.39884478233583</v>
+        <v>69.84789847950766</v>
       </c>
       <c r="O5" t="n">
-        <v>8.390401944027225</v>
+        <v>8.357505517767109</v>
       </c>
       <c r="P5" t="n">
-        <v>369.1170645494877</v>
+        <v>369.0659170929763</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -31111,28 +31461,28 @@
         <v>0.0522</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2151531465742291</v>
+        <v>-0.2110420277058903</v>
       </c>
       <c r="J6" t="n">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K6" t="n">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03719260358805043</v>
+        <v>0.03627228516326175</v>
       </c>
       <c r="M6" t="n">
-        <v>6.46317575647064</v>
+        <v>6.467404831071675</v>
       </c>
       <c r="N6" t="n">
-        <v>67.25852900184452</v>
+        <v>67.22483107226397</v>
       </c>
       <c r="O6" t="n">
-        <v>8.201129739361798</v>
+        <v>8.199075013211184</v>
       </c>
       <c r="P6" t="n">
-        <v>382.1983786874274</v>
+        <v>382.1581318118243</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -31188,28 +31538,28 @@
         <v>0.0505</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0574145461229902</v>
+        <v>-0.04924336784383043</v>
       </c>
       <c r="J7" t="n">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K7" t="n">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002542606527660696</v>
+        <v>0.001900479841878133</v>
       </c>
       <c r="M7" t="n">
-        <v>6.249523709060091</v>
+        <v>6.247050430961997</v>
       </c>
       <c r="N7" t="n">
-        <v>71.24897372063845</v>
+        <v>70.99814663288855</v>
       </c>
       <c r="O7" t="n">
-        <v>8.440910716305346</v>
+        <v>8.426039795353956</v>
       </c>
       <c r="P7" t="n">
-        <v>374.6801341174287</v>
+        <v>374.5994890279808</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -31265,28 +31615,28 @@
         <v>0.0396</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2198745578764882</v>
+        <v>-0.2082457562454344</v>
       </c>
       <c r="J8" t="n">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K8" t="n">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02572950068722357</v>
+        <v>0.02354906811348378</v>
       </c>
       <c r="M8" t="n">
-        <v>7.635937791607793</v>
+        <v>7.61294877569558</v>
       </c>
       <c r="N8" t="n">
-        <v>100.9309652979079</v>
+        <v>100.4094817192836</v>
       </c>
       <c r="O8" t="n">
-        <v>10.04644042922208</v>
+        <v>10.02045316935734</v>
       </c>
       <c r="P8" t="n">
-        <v>386.0517820042389</v>
+        <v>385.9382501595776</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -31342,28 +31692,28 @@
         <v>0.0319</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.320483333035899</v>
+        <v>-0.2867969580690288</v>
       </c>
       <c r="J9" t="n">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K9" t="n">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03682877085239744</v>
+        <v>0.02960292957420407</v>
       </c>
       <c r="M9" t="n">
-        <v>9.140284659332957</v>
+        <v>9.208352187132514</v>
       </c>
       <c r="N9" t="n">
-        <v>147.1342969680618</v>
+        <v>149.6167865187679</v>
       </c>
       <c r="O9" t="n">
-        <v>12.12989270224851</v>
+        <v>12.23179408422035</v>
       </c>
       <c r="P9" t="n">
-        <v>369.8341338407255</v>
+        <v>369.5036528320898</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -31419,28 +31769,28 @@
         <v>0.0391</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4618354088884026</v>
+        <v>-0.4301897772433459</v>
       </c>
       <c r="J10" t="n">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K10" t="n">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05128028942877527</v>
+        <v>0.04542864245140443</v>
       </c>
       <c r="M10" t="n">
-        <v>11.36380747885587</v>
+        <v>11.36353405195782</v>
       </c>
       <c r="N10" t="n">
-        <v>213.4740027124221</v>
+        <v>213.1290894394381</v>
       </c>
       <c r="O10" t="n">
-        <v>14.61074956025262</v>
+        <v>14.59894138077957</v>
       </c>
       <c r="P10" t="n">
-        <v>366.593665560432</v>
+        <v>366.2814241538788</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -31496,28 +31846,28 @@
         <v>0.0416</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5860457298555871</v>
+        <v>-0.5311682822230729</v>
       </c>
       <c r="J11" t="n">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K11" t="n">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07588414625821105</v>
+        <v>0.06312881657945368</v>
       </c>
       <c r="M11" t="n">
-        <v>12.18453434736937</v>
+        <v>12.31043359957104</v>
       </c>
       <c r="N11" t="n">
-        <v>225.7512955270348</v>
+        <v>229.1437253957428</v>
       </c>
       <c r="O11" t="n">
-        <v>15.02502231369507</v>
+        <v>15.13749402628265</v>
       </c>
       <c r="P11" t="n">
-        <v>370.5487506802255</v>
+        <v>370.0090247874437</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -31554,7 +31904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L627"/>
+  <dimension ref="A1:L634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65088,6 +65438,412 @@
         </is>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:57+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-41.107493097753434,174.8316432631112</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>-41.10751358764532,174.83252641891912</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>-41.10743419409298,174.8333864632172</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>-41.107036754695905,174.8341006443466</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>-41.1065858459111,174.83471132319448</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>-41.106046445482896,174.83518968471822</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>-41.10547716030792,174.83551274379528</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>-41.10488988252709,174.8358480086462</t>
+        </is>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>-41.10422701044861,174.8359897565621</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>-41.103564212344864,174.83586928319252</t>
+        </is>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:01:11+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-41.10751210636469,174.8316474585322</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-41.10749992114304,174.8325213015133</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>-41.10731774549033,174.83330222348016</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>-41.10699547189095,174.83406031229143</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>-41.1065988055641,174.83473018083012</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>-41.106053246344636,174.83520372009457</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>-41.10550279289184,174.83561003068817</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>-41.10489513513312,174.83591719090538</t>
+        </is>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>-41.10422700357547,174.83598050414787</t>
+        </is>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>-41.10357196811984,174.83576469244076</t>
+        </is>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr"/>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-41.10750082699189,174.83252164070728</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-41.10732422363696,174.83330690980765</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-41.106956072146886,174.8340218199916</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>-41.10653535302626,174.8346378509401</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>-41.10600166770105,174.8350972740896</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>-41.10547275066558,174.83549600730893</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>-41.10487311108397,174.83562711512673</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>-41.104226930287446,174.83588190810727</t>
+        </is>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>-41.10358123877655,174.83563967099388</t>
+        </is>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-15 22:01:08+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr"/>
+      <c r="C631" t="inlineStr"/>
+      <c r="D631" t="inlineStr"/>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>-41.10646030667325,174.8345286512472</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>-41.10596332909295,174.83501815260001</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>-41.10543395670891,174.83534876808324</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>-41.10486214375682,174.83548266961353</t>
+        </is>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>-41.10422684437616,174.83576647402955</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>-41.10357644656929,174.83570429757407</t>
+        </is>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:49+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr"/>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>-41.10751885732248,174.83252839214416</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>-41.10730921329688,174.8332960512454</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>-41.10696302504392,174.834028612747</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>-41.10649622504364,174.83458091589486</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>-41.105991801033845,174.83507691168714</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>-41.10546706721693,174.83547443619779</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>-41.10487001998314,174.83558640344287</t>
+        </is>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>-41.104226884415816,174.83582025369023</t>
+        </is>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>-41.103583829415214,174.835604734043</t>
+        </is>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:53+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr"/>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>-41.10749715633475,174.83252026623435</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>-41.10725912615364,174.83325981797418</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>-41.10694571522653,174.834011701619</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>-41.106489334747494,174.8345708898509</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>-41.10598122188978,174.83505507892096</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>-41.105459348215305,174.83544513932583</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>-41.10486947431689,174.83557921670564</t>
+        </is>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>-41.10422691174031,174.83585697421077</t>
+        </is>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>-41.103581233755925,174.83563973870116</t>
+        </is>
+      </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:01:09+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-41.10748625820633,174.83164175354446</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>-41.10755895885529,174.83254340813232</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>-41.10740235638837,174.83336343156293</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>-41.106993226685326,174.83405811879516</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>-41.10655051300877,174.83465991022857</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>-41.106029081687296,174.8351538499648</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>-41.10547437148451,174.83550215901144</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>-41.10488604498028,174.83579746453591</t>
+        </is>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>-41.10422692583461,174.83587592125085</t>
+        </is>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>-41.1035790096139,174.8356697330189</t>
+        </is>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0342/nzd0342.xlsx
+++ b/data/nzd0342/nzd0342.xlsx
@@ -30998,7 +30998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31089,35 +31089,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -31176,27 +31181,28 @@
       <c r="P2" t="n">
         <v>389.30513762202</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.83240310828938 -41.110935606251864, 174.83063748138434 -41.102935752737835)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.8324031082894</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.11093560625186</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.8306374813843</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.10293575273784</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.8315202948369</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.10693567949485</v>
       </c>
     </row>
@@ -31253,27 +31259,28 @@
       <c r="P3" t="n">
         <v>370.9339913825915</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.83374141579463 -41.11075817213134, 174.8308192496082 -41.10295408961901)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.8337414157946</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.11075817213134</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.8308192496082</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.10295408961901</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.8322803327014</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.10685613087517</v>
       </c>
     </row>
@@ -31330,27 +31337,28 @@
       <c r="P4" t="n">
         <v>368.5799784114595</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.8354238541379 -41.1102504276833, 174.8302755174327 -41.103133460986655)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.8354238541379</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.1102504276833</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.8302755174327</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.10313346098665</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.8328496857853</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.10669194433498</v>
       </c>
     </row>
@@ -31407,27 +31415,28 @@
       <c r="P5" t="n">
         <v>369.0659170929763</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.83664598318893 -41.10964195810056, 174.83027080896184 -41.103116336585956)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.8366459831889</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.10964195810056</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.8302708089618</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.10311633658596</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.8334583960754</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.10637914734326</v>
       </c>
     </row>
@@ -31484,27 +31493,28 @@
       <c r="P6" t="n">
         <v>382.1581318118243</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.83796551064663 -41.10882211816119, 174.83002404724917 -41.10336432021499)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.8379655106466</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.10882211816119</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.8300240472492</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.10336432021499</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.8339947789479</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.1060932191881</v>
       </c>
     </row>
@@ -31561,27 +31571,28 @@
       <c r="P7" t="n">
         <v>374.5994890279808</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.83888839495847 -41.10783855134519, 174.82985157888317 -41.10345962908257)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.8388883949585</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.10783855134519</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.8298515788832</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.10345962908257</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.8343699869208</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.10564909021388</v>
       </c>
     </row>
@@ -31638,27 +31649,28 @@
       <c r="P8" t="n">
         <v>385.9382501595776</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.83981388364964 -41.10661030106739, 174.8296766265279 -41.10393930544005)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.8398138836496</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-41.10661030106739</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.8296766265279</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-41.10393930544005</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.8347452550888</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-41.10527480325372</v>
       </c>
     </row>
@@ -31715,27 +31727,28 @@
       <c r="P9" t="n">
         <v>369.5036528320898</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.84013073223161 -41.10521496462293, 174.82944837757367 -41.10440381190501)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.8401307322316</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-41.10521496462293</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.8294483775737</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-41.10440381190501</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.8347895549026</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-41.10480938826397</v>
       </c>
     </row>
@@ -31792,27 +31805,28 @@
       <c r="P10" t="n">
         <v>366.2814241538788</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.84025430042226 -41.10423009921436, 174.8295181600281 -41.10422202143637)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.8402543004223</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-41.10423009921436</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.8295181600281</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-41.10422202143637</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.8348862302252</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-41.10422606032537</v>
       </c>
     </row>
@@ -31869,27 +31883,28 @@
       <c r="P11" t="n">
         <v>370.0090247874437</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.84016010346073 -41.103245949562805, 174.82947533686732 -41.10403816862125)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.8401601034607</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-41.1032459495628</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.8294753368673</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-41.10403816862125</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.834817720164</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-41.10364205909202</v>
       </c>
     </row>

--- a/data/nzd0342/nzd0342.xlsx
+++ b/data/nzd0342/nzd0342.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L634"/>
+  <dimension ref="A1:L637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24396,6 +24396,132 @@
         </is>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:54+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>398.77</v>
+      </c>
+      <c r="C635" t="n">
+        <v>384.1363636363636</v>
+      </c>
+      <c r="D635" t="n">
+        <v>382.24</v>
+      </c>
+      <c r="E635" t="n">
+        <v>382.58</v>
+      </c>
+      <c r="F635" t="n">
+        <v>387.9722222222222</v>
+      </c>
+      <c r="G635" t="n">
+        <v>387.8822222222223</v>
+      </c>
+      <c r="H635" t="n">
+        <v>397.5157142857143</v>
+      </c>
+      <c r="I635" t="n">
+        <v>380.0833333333333</v>
+      </c>
+      <c r="J635" t="n">
+        <v>367.8857142857143</v>
+      </c>
+      <c r="K635" t="n">
+        <v>363.4457142857143</v>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:24+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>401.63</v>
+      </c>
+      <c r="C636" t="n">
+        <v>381.0118181818182</v>
+      </c>
+      <c r="D636" t="n">
+        <v>380.59</v>
+      </c>
+      <c r="E636" t="n">
+        <v>377.27</v>
+      </c>
+      <c r="F636" t="n">
+        <v>389.6344444444445</v>
+      </c>
+      <c r="G636" t="n">
+        <v>384.5044444444445</v>
+      </c>
+      <c r="H636" t="n">
+        <v>396.36</v>
+      </c>
+      <c r="I636" t="n">
+        <v>377.3666666666667</v>
+      </c>
+      <c r="J636" t="n">
+        <v>361.97</v>
+      </c>
+      <c r="K636" t="n">
+        <v>362.69</v>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:55+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>398.41</v>
+      </c>
+      <c r="C637" t="n">
+        <v>373.3536363636364</v>
+      </c>
+      <c r="D637" t="n">
+        <v>364.41</v>
+      </c>
+      <c r="E637" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="F637" t="n">
+        <v>386.2466666666666</v>
+      </c>
+      <c r="G637" t="n">
+        <v>373.1966666666667</v>
+      </c>
+      <c r="H637" t="n">
+        <v>387.9357142857143</v>
+      </c>
+      <c r="I637" t="n">
+        <v>372.48</v>
+      </c>
+      <c r="J637" t="n">
+        <v>358.5157142857143</v>
+      </c>
+      <c r="K637" t="n">
+        <v>357.4257142857143</v>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24407,7 +24533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B657"/>
+  <dimension ref="A1:B660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30985,6 +31111,36 @@
       </c>
       <c r="B657" t="n">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -31158,28 +31314,28 @@
         <v>0.058</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1552795711570913</v>
+        <v>0.1640682729841151</v>
       </c>
       <c r="J2" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K2" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00274735416229055</v>
+        <v>0.003112472176699077</v>
       </c>
       <c r="M2" t="n">
-        <v>12.24566348877006</v>
+        <v>12.22535174526458</v>
       </c>
       <c r="N2" t="n">
-        <v>513.1441117990236</v>
+        <v>509.6292998635818</v>
       </c>
       <c r="O2" t="n">
-        <v>22.65268442809866</v>
+        <v>22.57497065033711</v>
       </c>
       <c r="P2" t="n">
-        <v>389.30513762202</v>
+        <v>389.2236036776074</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31236,28 +31392,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03369931357099489</v>
+        <v>0.0421271170228057</v>
       </c>
       <c r="J3" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K3" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007975579000294442</v>
+        <v>0.001253009691501994</v>
       </c>
       <c r="M3" t="n">
-        <v>7.122098757524268</v>
+        <v>7.120862833484637</v>
       </c>
       <c r="N3" t="n">
-        <v>79.79051689341851</v>
+        <v>79.78470408413789</v>
       </c>
       <c r="O3" t="n">
-        <v>8.932553772209744</v>
+        <v>8.932228394087216</v>
       </c>
       <c r="P3" t="n">
-        <v>370.9339913825915</v>
+        <v>370.851297159533</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31314,28 +31470,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2032485619752197</v>
+        <v>-0.1898770323701617</v>
       </c>
       <c r="J4" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K4" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02812175682470797</v>
+        <v>0.0245266323821357</v>
       </c>
       <c r="M4" t="n">
-        <v>7.230916143088407</v>
+        <v>7.259422879152426</v>
       </c>
       <c r="N4" t="n">
-        <v>79.75974796049245</v>
+        <v>80.55182490028342</v>
       </c>
       <c r="O4" t="n">
-        <v>8.930831314076672</v>
+        <v>8.975066846563507</v>
       </c>
       <c r="P4" t="n">
-        <v>368.5799784114595</v>
+        <v>368.4479467388167</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31392,28 +31548,28 @@
         <v>0.0622</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1614230597378698</v>
+        <v>-0.1491277721428766</v>
       </c>
       <c r="J5" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K5" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02064207310841215</v>
+        <v>0.01763724652371124</v>
       </c>
       <c r="M5" t="n">
-        <v>6.553496100461532</v>
+        <v>6.576815498098955</v>
       </c>
       <c r="N5" t="n">
-        <v>69.84789847950766</v>
+        <v>70.36830502705301</v>
       </c>
       <c r="O5" t="n">
-        <v>8.357505517767109</v>
+        <v>8.388581824542991</v>
       </c>
       <c r="P5" t="n">
-        <v>369.0659170929763</v>
+        <v>368.945461632175</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31470,28 +31626,28 @@
         <v>0.0522</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2110420277058903</v>
+        <v>-0.1990818249262091</v>
       </c>
       <c r="J6" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K6" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03627228516326175</v>
+        <v>0.03241427496126659</v>
       </c>
       <c r="M6" t="n">
-        <v>6.467404831071675</v>
+        <v>6.488230461394716</v>
       </c>
       <c r="N6" t="n">
-        <v>67.22483107226397</v>
+        <v>67.56695538383656</v>
       </c>
       <c r="O6" t="n">
-        <v>8.199075013211184</v>
+        <v>8.219912127500912</v>
       </c>
       <c r="P6" t="n">
-        <v>382.1581318118243</v>
+        <v>382.0409383905336</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31548,28 +31704,28 @@
         <v>0.0505</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04924336784383043</v>
+        <v>-0.04023708099420786</v>
       </c>
       <c r="J7" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K7" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001900479841878133</v>
+        <v>0.001272169629787712</v>
       </c>
       <c r="M7" t="n">
-        <v>6.247050430961997</v>
+        <v>6.257173727744584</v>
       </c>
       <c r="N7" t="n">
-        <v>70.99814663288855</v>
+        <v>71.22844745879557</v>
       </c>
       <c r="O7" t="n">
-        <v>8.426039795353956</v>
+        <v>8.439694749147955</v>
       </c>
       <c r="P7" t="n">
-        <v>374.5994890279808</v>
+        <v>374.5099093837362</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31626,28 +31782,28 @@
         <v>0.0396</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2082457562454344</v>
+        <v>-0.1938714180263678</v>
       </c>
       <c r="J8" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K8" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02354906811348378</v>
+        <v>0.02047922958483273</v>
       </c>
       <c r="M8" t="n">
-        <v>7.61294877569558</v>
+        <v>7.637228534201763</v>
       </c>
       <c r="N8" t="n">
-        <v>100.4094817192836</v>
+        <v>100.9474698189387</v>
       </c>
       <c r="O8" t="n">
-        <v>10.02045316935734</v>
+        <v>10.04726180702676</v>
       </c>
       <c r="P8" t="n">
-        <v>385.9382501595776</v>
+        <v>385.7965848171306</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31704,28 +31860,28 @@
         <v>0.0319</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2867969580690288</v>
+        <v>-0.2707751383691627</v>
       </c>
       <c r="J9" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K9" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02960292957420407</v>
+        <v>0.02655117369421711</v>
       </c>
       <c r="M9" t="n">
-        <v>9.208352187132514</v>
+        <v>9.234956235392666</v>
       </c>
       <c r="N9" t="n">
-        <v>149.6167865187679</v>
+        <v>150.013811670127</v>
       </c>
       <c r="O9" t="n">
-        <v>12.23179408422035</v>
+        <v>12.24801256000854</v>
       </c>
       <c r="P9" t="n">
-        <v>369.5036528320898</v>
+        <v>369.3448612190219</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31782,28 +31938,28 @@
         <v>0.0391</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4301897772433459</v>
+        <v>-0.4219308245258079</v>
       </c>
       <c r="J10" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K10" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04542864245140443</v>
+        <v>0.04417972033471351</v>
       </c>
       <c r="M10" t="n">
-        <v>11.36353405195782</v>
+        <v>11.33818998960719</v>
       </c>
       <c r="N10" t="n">
-        <v>213.1290894394381</v>
+        <v>212.3060592058307</v>
       </c>
       <c r="O10" t="n">
-        <v>14.59894138077957</v>
+        <v>14.57072610427602</v>
       </c>
       <c r="P10" t="n">
-        <v>366.2814241538788</v>
+        <v>366.199101502372</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31860,28 +32016,28 @@
         <v>0.0416</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5311682822230729</v>
+        <v>-0.525731078080675</v>
       </c>
       <c r="J11" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K11" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06312881657945368</v>
+        <v>0.06257674814546721</v>
       </c>
       <c r="M11" t="n">
-        <v>12.31043359957104</v>
+        <v>12.2672027044457</v>
       </c>
       <c r="N11" t="n">
-        <v>229.1437253957428</v>
+        <v>227.9626455514093</v>
       </c>
       <c r="O11" t="n">
-        <v>15.13749402628265</v>
+        <v>15.09843189047821</v>
       </c>
       <c r="P11" t="n">
-        <v>370.0090247874437</v>
+        <v>369.9549854387973</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31919,7 +32075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L634"/>
+  <dimension ref="A1:L637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65859,6 +66015,192 @@
         </is>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:54+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>-41.10739352460328,174.8316212862057</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>-41.107429776929195,174.83249503613118</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>-41.10723068549873,174.83323924390191</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>-41.10687111640078,174.8339388211281</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>-41.10647264057884,174.83454659824326</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>-41.10595437459363,174.83499967273823</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>-41.10543280985725,174.83534441531714</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>-41.10487318903588,174.83562814180357</t>
+        </is>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>-41.104226924683395,174.83587437351235</t>
+        </is>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>-41.10356536460871,174.83585374438383</t>
+        </is>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:24+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>-41.10736812056918,174.83161567926356</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>-41.107456849997284,174.8325051735884</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>-41.10724372079942,174.83324867368282</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>-41.10690957463667,174.8339763934769</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>-41.10646257428187,174.8345319508308</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>-41.10597078307709,174.83503353577987</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>-41.105436233484,174.8353574093684</t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>-41.10487563252407,174.83566032417482</t>
+        </is>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>-41.104226977048825,174.83594480411554</t>
+        </is>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>-41.103564700613795,174.83586269866473</t>
+        </is>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:55+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>-41.10739672231383,174.83162199197494</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>-41.10752320539688,174.83253002027632</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>-41.10737154570149,174.8333411428868</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>-41.10696838456841,174.8340338488303</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>-41.10648309041579,174.83456180375035</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>-41.10602571363856,174.83514689911644</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>-41.10546118909632,174.8354521262437</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>-41.104880027781874,174.83571821296076</t>
+        </is>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>-41.10422700760594,174.83598592973635</t>
+        </is>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>-41.10356007522348,174.83592507394297</t>
+        </is>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0342/nzd0342.xlsx
+++ b/data/nzd0342/nzd0342.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L637"/>
+  <dimension ref="A1:L640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24522,6 +24522,118 @@
         </is>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:25+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr"/>
+      <c r="C638" t="n">
+        <v>377.6418181818182</v>
+      </c>
+      <c r="D638" t="n">
+        <v>348.66</v>
+      </c>
+      <c r="E638" t="n">
+        <v>341.04</v>
+      </c>
+      <c r="F638" t="n">
+        <v>345.9822222222222</v>
+      </c>
+      <c r="G638" t="inlineStr"/>
+      <c r="H638" t="inlineStr"/>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>396.28</v>
+      </c>
+      <c r="C639" t="n">
+        <v>376.2572727272727</v>
+      </c>
+      <c r="D639" t="n">
+        <v>370.81</v>
+      </c>
+      <c r="E639" t="n">
+        <v>371.09</v>
+      </c>
+      <c r="F639" t="n">
+        <v>384.0522222222222</v>
+      </c>
+      <c r="G639" t="n">
+        <v>376.3522222222222</v>
+      </c>
+      <c r="H639" t="n">
+        <v>388.8614285714286</v>
+      </c>
+      <c r="I639" t="n">
+        <v>368.0433333333333</v>
+      </c>
+      <c r="J639" t="n">
+        <v>344.7214285714285</v>
+      </c>
+      <c r="K639" t="n">
+        <v>346.1114285714286</v>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>396.84</v>
+      </c>
+      <c r="C640" t="n">
+        <v>380.5963636363636</v>
+      </c>
+      <c r="D640" t="n">
+        <v>375.22</v>
+      </c>
+      <c r="E640" t="n">
+        <v>380.8</v>
+      </c>
+      <c r="F640" t="n">
+        <v>388.3311111111111</v>
+      </c>
+      <c r="G640" t="n">
+        <v>380.1211111111111</v>
+      </c>
+      <c r="H640" t="n">
+        <v>384.7057142857143</v>
+      </c>
+      <c r="I640" t="n">
+        <v>366.6566666666667</v>
+      </c>
+      <c r="J640" t="n">
+        <v>345.9257142857143</v>
+      </c>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24533,7 +24645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B660"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31141,6 +31253,36 @@
       </c>
       <c r="B660" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
@@ -31314,28 +31456,28 @@
         <v>0.058</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1640682729841151</v>
+        <v>0.1669357677986757</v>
       </c>
       <c r="J2" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K2" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003112472176699077</v>
+        <v>0.003255034149709291</v>
       </c>
       <c r="M2" t="n">
-        <v>12.22535174526458</v>
+        <v>12.18778886130569</v>
       </c>
       <c r="N2" t="n">
-        <v>509.6292998635818</v>
+        <v>507.1598736754823</v>
       </c>
       <c r="O2" t="n">
-        <v>22.57497065033711</v>
+        <v>22.52021033817141</v>
       </c>
       <c r="P2" t="n">
-        <v>389.2236036776074</v>
+        <v>389.1968479289883</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31392,28 +31534,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0421271170228057</v>
+        <v>0.04889765684671254</v>
       </c>
       <c r="J3" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K3" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001253009691501994</v>
+        <v>0.001701807930588939</v>
       </c>
       <c r="M3" t="n">
-        <v>7.120862833484637</v>
+        <v>7.111462636159583</v>
       </c>
       <c r="N3" t="n">
-        <v>79.78470408413789</v>
+        <v>79.55971864236845</v>
       </c>
       <c r="O3" t="n">
-        <v>8.932228394087216</v>
+        <v>8.919625476575149</v>
       </c>
       <c r="P3" t="n">
-        <v>370.851297159533</v>
+        <v>370.7844702855383</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31470,28 +31612,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1898770323701617</v>
+        <v>-0.1884166430833173</v>
       </c>
       <c r="J4" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K4" t="n">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0245266323821357</v>
+        <v>0.02419421788378129</v>
       </c>
       <c r="M4" t="n">
-        <v>7.259422879152426</v>
+        <v>7.282543346855137</v>
       </c>
       <c r="N4" t="n">
-        <v>80.55182490028342</v>
+        <v>80.87880411668091</v>
       </c>
       <c r="O4" t="n">
-        <v>8.975066846563507</v>
+        <v>8.993264374890851</v>
       </c>
       <c r="P4" t="n">
-        <v>368.4479467388167</v>
+        <v>368.433341282171</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31548,28 +31690,28 @@
         <v>0.0622</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1491277721428766</v>
+        <v>-0.1499458719202193</v>
       </c>
       <c r="J5" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K5" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01763724652371124</v>
+        <v>0.01761309701630842</v>
       </c>
       <c r="M5" t="n">
-        <v>6.576815498098955</v>
+        <v>6.627702167198167</v>
       </c>
       <c r="N5" t="n">
-        <v>70.36830502705301</v>
+        <v>71.63361234417509</v>
       </c>
       <c r="O5" t="n">
-        <v>8.388581824542991</v>
+        <v>8.463664238624728</v>
       </c>
       <c r="P5" t="n">
-        <v>368.945461632175</v>
+        <v>368.9533697203679</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31626,28 +31768,28 @@
         <v>0.0522</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1990818249262091</v>
+        <v>-0.2034149022581779</v>
       </c>
       <c r="J6" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K6" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03241427496126659</v>
+        <v>0.03310536000163466</v>
       </c>
       <c r="M6" t="n">
-        <v>6.488230461394716</v>
+        <v>6.549240062812167</v>
       </c>
       <c r="N6" t="n">
-        <v>67.56695538383656</v>
+        <v>69.38551453017143</v>
       </c>
       <c r="O6" t="n">
-        <v>8.219912127500912</v>
+        <v>8.329796788047799</v>
       </c>
       <c r="P6" t="n">
-        <v>382.0409383905336</v>
+        <v>382.083464214598</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31704,28 +31846,28 @@
         <v>0.0505</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04023708099420786</v>
+        <v>-0.03687805744414388</v>
       </c>
       <c r="J7" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K7" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001272169629787712</v>
+        <v>0.001075212601541198</v>
       </c>
       <c r="M7" t="n">
-        <v>6.257173727744584</v>
+        <v>6.250173490921436</v>
       </c>
       <c r="N7" t="n">
-        <v>71.22844745879557</v>
+        <v>71.05516192869291</v>
       </c>
       <c r="O7" t="n">
-        <v>8.439694749147955</v>
+        <v>8.429422395911413</v>
       </c>
       <c r="P7" t="n">
-        <v>374.5099093837362</v>
+        <v>374.4762748415082</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31782,28 +31924,28 @@
         <v>0.0396</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1938714180263678</v>
+        <v>-0.1895752990631387</v>
       </c>
       <c r="J8" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K8" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02047922958483273</v>
+        <v>0.01971659070774512</v>
       </c>
       <c r="M8" t="n">
-        <v>7.637228534201763</v>
+        <v>7.628185408544593</v>
       </c>
       <c r="N8" t="n">
-        <v>100.9474698189387</v>
+        <v>100.7120919565884</v>
       </c>
       <c r="O8" t="n">
-        <v>10.04726180702676</v>
+        <v>10.03554143813817</v>
       </c>
       <c r="P8" t="n">
-        <v>385.7965848171306</v>
+        <v>385.7539964700161</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31860,28 +32002,28 @@
         <v>0.0319</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2707751383691627</v>
+        <v>-0.2671038772952058</v>
       </c>
       <c r="J9" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K9" t="n">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02655117369421711</v>
+        <v>0.02603417373036887</v>
       </c>
       <c r="M9" t="n">
-        <v>9.234956235392666</v>
+        <v>9.216937383691764</v>
       </c>
       <c r="N9" t="n">
-        <v>150.013811670127</v>
+        <v>149.5219343516566</v>
       </c>
       <c r="O9" t="n">
-        <v>12.24801256000854</v>
+        <v>12.22791619008147</v>
       </c>
       <c r="P9" t="n">
-        <v>369.3448612190219</v>
+        <v>369.3082601847344</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31938,28 +32080,28 @@
         <v>0.0391</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4219308245258079</v>
+        <v>-0.4292133651451474</v>
       </c>
       <c r="J10" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K10" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04417972033471351</v>
+        <v>0.0459054843786324</v>
       </c>
       <c r="M10" t="n">
-        <v>11.33818998960719</v>
+        <v>11.33538474021028</v>
       </c>
       <c r="N10" t="n">
-        <v>212.3060592058307</v>
+        <v>211.8705853357588</v>
       </c>
       <c r="O10" t="n">
-        <v>14.57072610427602</v>
+        <v>14.55577498231402</v>
       </c>
       <c r="P10" t="n">
-        <v>366.199101502372</v>
+        <v>366.2721382896742</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32016,28 +32158,28 @@
         <v>0.0416</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.525731078080675</v>
+        <v>-0.5296188021930049</v>
       </c>
       <c r="J11" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K11" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06257674814546721</v>
+        <v>0.06363103791875158</v>
       </c>
       <c r="M11" t="n">
-        <v>12.2672027044457</v>
+        <v>12.26232420555383</v>
       </c>
       <c r="N11" t="n">
-        <v>227.9626455514093</v>
+        <v>227.7205723329271</v>
       </c>
       <c r="O11" t="n">
-        <v>15.09843189047821</v>
+        <v>15.09041325918303</v>
       </c>
       <c r="P11" t="n">
-        <v>369.9549854387973</v>
+        <v>369.993837368785</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32075,7 +32217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L637"/>
+  <dimension ref="A1:L640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66201,6 +66343,164 @@
         </is>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:25+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr"/>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>-41.10748604983984,174.83251610742244</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>-41.10749597344528,174.83343115497823</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>-41.107171973880334,174.83423274987368</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>-41.106726928312604,174.83491661333647</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr"/>
+      <c r="H638" t="inlineStr"/>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>-41.10741564210113,174.83162616777796</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>-41.10749804642974,174.83252059952926</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>-41.10732098456367,174.83330456664382</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>-41.106954333922545,174.83402012180295</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>-41.10649637980615,174.83458114108925</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>-41.10601038469332,174.83511526385388</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>-41.10545844681825,174.8354417181455</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>-41.10488401826687,174.83577077092974</t>
+        </is>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>-41.10422712948584,174.83615016008469</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>-41.10355013397234,174.83605913420865</t>
+        </is>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>-41.10741066788478,174.831625069914</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>-41.10746044976216,174.83250652151398</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>-41.107286144771955,174.8332793633596</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>-41.10688400824029,174.83395141599715</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>-41.106470467173985,174.83454343573337</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>-41.10599207630743,174.83507747978473</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>-41.1054707574387,174.83548844216085</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>-41.10488526547584,174.83578719776415</t>
+        </is>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>-41.10422711885467,174.83613582224493</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0342/nzd0342.xlsx
+++ b/data/nzd0342/nzd0342.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L640"/>
+  <dimension ref="A1:L644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24634,6 +24634,168 @@
         </is>
       </c>
     </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:30+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr"/>
+      <c r="C641" t="n">
+        <v>382.0845454545454</v>
+      </c>
+      <c r="D641" t="n">
+        <v>381.55</v>
+      </c>
+      <c r="E641" t="n">
+        <v>380.54</v>
+      </c>
+      <c r="F641" t="n">
+        <v>387.4577777777778</v>
+      </c>
+      <c r="G641" t="n">
+        <v>381.8577777777778</v>
+      </c>
+      <c r="H641" t="n">
+        <v>388.3057142857143</v>
+      </c>
+      <c r="I641" t="n">
+        <v>366.6266666666667</v>
+      </c>
+      <c r="J641" t="n">
+        <v>345.3257142857143</v>
+      </c>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>379.87</v>
+      </c>
+      <c r="C642" t="n">
+        <v>367.3981818181818</v>
+      </c>
+      <c r="D642" t="n">
+        <v>356.97</v>
+      </c>
+      <c r="E642" t="n">
+        <v>360.56</v>
+      </c>
+      <c r="F642" t="n">
+        <v>368.8566666666667</v>
+      </c>
+      <c r="G642" t="n">
+        <v>375.4566666666667</v>
+      </c>
+      <c r="H642" t="n">
+        <v>365.64</v>
+      </c>
+      <c r="I642" t="n">
+        <v>333.62</v>
+      </c>
+      <c r="J642" t="n">
+        <v>331.16</v>
+      </c>
+      <c r="K642" t="n">
+        <v>337.83</v>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:29+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
+      <c r="C643" t="n">
+        <v>377.0918181818182</v>
+      </c>
+      <c r="D643" t="n">
+        <v>363.27</v>
+      </c>
+      <c r="E643" t="n">
+        <v>363</v>
+      </c>
+      <c r="F643" t="n">
+        <v>374.8622222222222</v>
+      </c>
+      <c r="G643" t="n">
+        <v>368.7522222222222</v>
+      </c>
+      <c r="H643" t="n">
+        <v>374.0757142857143</v>
+      </c>
+      <c r="I643" t="n">
+        <v>345.7033333333333</v>
+      </c>
+      <c r="J643" t="n">
+        <v>335.1557142857143</v>
+      </c>
+      <c r="K643" t="n">
+        <v>331.1057142857143</v>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:06:17+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>393.89</v>
+      </c>
+      <c r="C644" t="n">
+        <v>373.6863636363637</v>
+      </c>
+      <c r="D644" t="n">
+        <v>361.35</v>
+      </c>
+      <c r="E644" t="n">
+        <v>364.47</v>
+      </c>
+      <c r="F644" t="n">
+        <v>375.36</v>
+      </c>
+      <c r="G644" t="n">
+        <v>367.29</v>
+      </c>
+      <c r="H644" t="n">
+        <v>370.6314285714286</v>
+      </c>
+      <c r="I644" t="n">
+        <v>348.28</v>
+      </c>
+      <c r="J644" t="n">
+        <v>331.5914285714285</v>
+      </c>
+      <c r="K644" t="n">
+        <v>330.3514285714285</v>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24645,7 +24807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31283,6 +31445,46 @@
       </c>
       <c r="B663" t="n">
         <v>-0.13</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -31456,28 +31658,28 @@
         <v>0.058</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1669357677986757</v>
+        <v>0.1608887779066879</v>
       </c>
       <c r="J2" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="K2" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003255034149709291</v>
+        <v>0.003052479776684547</v>
       </c>
       <c r="M2" t="n">
-        <v>12.18778886130569</v>
+        <v>12.14666777614785</v>
       </c>
       <c r="N2" t="n">
-        <v>507.1598736754823</v>
+        <v>505.1217638484092</v>
       </c>
       <c r="O2" t="n">
-        <v>22.52021033817141</v>
+        <v>22.47491410102404</v>
       </c>
       <c r="P2" t="n">
-        <v>389.1968479289883</v>
+        <v>389.2533571290395</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31534,28 +31736,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04889765684671254</v>
+        <v>0.05318416828819731</v>
       </c>
       <c r="J3" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="K3" t="n">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001701807930588939</v>
+        <v>0.002035801631805279</v>
       </c>
       <c r="M3" t="n">
-        <v>7.111462636159583</v>
+        <v>7.095041622068913</v>
       </c>
       <c r="N3" t="n">
-        <v>79.55971864236845</v>
+        <v>79.2330678603151</v>
       </c>
       <c r="O3" t="n">
-        <v>8.919625476575149</v>
+        <v>8.901295852869687</v>
       </c>
       <c r="P3" t="n">
-        <v>370.7844702855383</v>
+        <v>370.7421028079053</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31612,28 +31814,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1884166430833173</v>
+        <v>-0.1853172002415523</v>
       </c>
       <c r="J4" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="K4" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02419421788378129</v>
+        <v>0.0235605942863153</v>
       </c>
       <c r="M4" t="n">
-        <v>7.282543346855137</v>
+        <v>7.278463002400812</v>
       </c>
       <c r="N4" t="n">
-        <v>80.87880411668091</v>
+        <v>80.97054831138402</v>
       </c>
       <c r="O4" t="n">
-        <v>8.993264374890851</v>
+        <v>8.998363646318369</v>
       </c>
       <c r="P4" t="n">
-        <v>368.433341282171</v>
+        <v>368.4025667947849</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31690,28 +31892,28 @@
         <v>0.0622</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1499458719202193</v>
+        <v>-0.1470691499385638</v>
       </c>
       <c r="J5" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="K5" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01761309701630842</v>
+        <v>0.01708404645208872</v>
       </c>
       <c r="M5" t="n">
-        <v>6.627702167198167</v>
+        <v>6.619679850394982</v>
       </c>
       <c r="N5" t="n">
-        <v>71.63361234417509</v>
+        <v>71.58942877120872</v>
       </c>
       <c r="O5" t="n">
-        <v>8.463664238624728</v>
+        <v>8.461053644269649</v>
       </c>
       <c r="P5" t="n">
-        <v>368.9533697203679</v>
+        <v>368.9250184642342</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31768,28 +31970,28 @@
         <v>0.0522</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2034149022581779</v>
+        <v>-0.2036948995139951</v>
       </c>
       <c r="J6" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="K6" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03310536000163466</v>
+        <v>0.03350004264962114</v>
       </c>
       <c r="M6" t="n">
-        <v>6.549240062812167</v>
+        <v>6.541346876371593</v>
       </c>
       <c r="N6" t="n">
-        <v>69.38551453017143</v>
+        <v>69.201950782135</v>
       </c>
       <c r="O6" t="n">
-        <v>8.329796788047799</v>
+        <v>8.318770989883962</v>
       </c>
       <c r="P6" t="n">
-        <v>382.083464214598</v>
+        <v>382.0862738863254</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31846,28 +32048,28 @@
         <v>0.0505</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03687805744414388</v>
+        <v>-0.0371439183617313</v>
       </c>
       <c r="J7" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="K7" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001075212601541198</v>
+        <v>0.001102616759555142</v>
       </c>
       <c r="M7" t="n">
-        <v>6.250173490921436</v>
+        <v>6.243172392995059</v>
       </c>
       <c r="N7" t="n">
-        <v>71.05516192869291</v>
+        <v>70.77108018883075</v>
       </c>
       <c r="O7" t="n">
-        <v>8.429422395911413</v>
+        <v>8.412554914461525</v>
       </c>
       <c r="P7" t="n">
-        <v>374.4762748415082</v>
+        <v>374.4789979160678</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31924,28 +32126,28 @@
         <v>0.0396</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1895752990631387</v>
+        <v>-0.1983084494817487</v>
       </c>
       <c r="J8" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="K8" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01971659070774512</v>
+        <v>0.02167684414737858</v>
       </c>
       <c r="M8" t="n">
-        <v>7.628185408544593</v>
+        <v>7.650638199944551</v>
       </c>
       <c r="N8" t="n">
-        <v>100.7120919565884</v>
+        <v>100.7716881005716</v>
       </c>
       <c r="O8" t="n">
-        <v>10.03554143813817</v>
+        <v>10.03851025304909</v>
       </c>
       <c r="P8" t="n">
-        <v>385.7539964700161</v>
+        <v>385.8407945699642</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32002,28 +32204,28 @@
         <v>0.0319</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2671038772952058</v>
+        <v>-0.2871035240806779</v>
       </c>
       <c r="J9" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="K9" t="n">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02603417373036887</v>
+        <v>0.0299054575473694</v>
       </c>
       <c r="M9" t="n">
-        <v>9.216937383691764</v>
+        <v>9.275409473803446</v>
       </c>
       <c r="N9" t="n">
-        <v>149.5219343516566</v>
+        <v>150.9079089485398</v>
       </c>
       <c r="O9" t="n">
-        <v>12.22791619008147</v>
+        <v>12.28445802420847</v>
       </c>
       <c r="P9" t="n">
-        <v>369.3082601847344</v>
+        <v>369.5080644247327</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32080,28 +32282,28 @@
         <v>0.0391</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4292133651451474</v>
+        <v>-0.4569198349312463</v>
       </c>
       <c r="J10" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="K10" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0459054843786324</v>
+        <v>0.05174335059197943</v>
       </c>
       <c r="M10" t="n">
-        <v>11.33538474021028</v>
+        <v>11.40613326757257</v>
       </c>
       <c r="N10" t="n">
-        <v>211.8705853357588</v>
+        <v>213.3038985666924</v>
       </c>
       <c r="O10" t="n">
-        <v>14.55577498231402</v>
+        <v>14.60492720169095</v>
       </c>
       <c r="P10" t="n">
-        <v>366.2721382896742</v>
+        <v>366.5505225152104</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32158,28 +32360,28 @@
         <v>0.0416</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5296188021930049</v>
+        <v>-0.555594161181064</v>
       </c>
       <c r="J11" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="K11" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06363103791875158</v>
+        <v>0.06945112195250769</v>
       </c>
       <c r="M11" t="n">
-        <v>12.26232420555383</v>
+        <v>12.32038094194889</v>
       </c>
       <c r="N11" t="n">
-        <v>227.7205723329271</v>
+        <v>229.5620985403544</v>
       </c>
       <c r="O11" t="n">
-        <v>15.09041325918303</v>
+        <v>15.15130682615709</v>
       </c>
       <c r="P11" t="n">
-        <v>369.993837368785</v>
+        <v>370.2540633021403</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32217,7 +32419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L640"/>
+  <dimension ref="A1:L644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42561,7 +42763,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>-41.105447685060255,174.83540087279283</t>
+          <t>-41.10544768506025,174.83540087279283</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -66501,6 +66703,242 @@
         </is>
       </c>
     </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:30+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr"/>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>-41.10744755519953,174.83250169316858</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>-41.10723613662457,174.83324318726437</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>-41.10688589131786,174.83395325569754</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>-41.10647575601662,174.83455113150083</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>-41.105983639980224,174.83506006926692</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>-41.105460093031574,174.8354479662167</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>-41.10488529245871,174.8357875531524</t>
+        </is>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>-41.10422712415156,174.83614296565264</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-41.1075614043973,174.83165833919227</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-41.10757480727023,174.83254934256468</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>-41.107430323007584,174.83338366284113</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>-41.10703059848913,174.83409462991406</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>-41.10658840285225,174.83471504380736</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>-41.10601473509208,174.83512424202902</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>-41.105527236235304,174.83570280425684</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>-41.10491497893353,174.83617855935515</t>
+        </is>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>-41.10422724907998,174.83631161810266</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>-41.1035428574304,174.8361572588461</t>
+        </is>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:29+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-41.10749081539266,174.83251789187702</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-41.10738055190277,174.8333476580361</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>-41.10701292655248,174.83407736496116</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>-41.10655203371693,174.83466212301173</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>-41.10604730368698,174.83519145584887</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>-41.10550224697835,174.83560795870304</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>-41.10490411123639,174.83603541677442</t>
+        </is>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>-41.104227213866515,174.836264046411</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>-41.10353694902302,174.83623693325757</t>
+        </is>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:06:17+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>-41.10743687134572,174.83163085330648</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>-41.1075203224345,174.8325289407539</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>-41.107395720240845,174.83335863092321</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>-41.10700227993354,174.8340669635391</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>-41.10654901921576,174.8346577366098</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>-41.10605440680897,174.83520611502016</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>-41.10551245005292,174.83564668394956</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>-41.10490179377052,174.83600489285834</t>
+        </is>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>-41.104227245278835,174.8363064816526</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>-41.1035362862537,174.83624587060288</t>
+        </is>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0342/nzd0342.xlsx
+++ b/data/nzd0342/nzd0342.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L644"/>
+  <dimension ref="A1:L648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24796,6 +24796,158 @@
         </is>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr"/>
+      <c r="C645" t="inlineStr"/>
+      <c r="D645" t="inlineStr"/>
+      <c r="E645" t="inlineStr"/>
+      <c r="F645" t="inlineStr"/>
+      <c r="G645" t="n">
+        <v>355.8177777777778</v>
+      </c>
+      <c r="H645" t="n">
+        <v>383.8885714285714</v>
+      </c>
+      <c r="I645" t="n">
+        <v>320.4366666666667</v>
+      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="n">
+        <v>327.7685714285714</v>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr"/>
+      <c r="C646" t="n">
+        <v>379.4781818181818</v>
+      </c>
+      <c r="D646" t="n">
+        <v>371.3</v>
+      </c>
+      <c r="E646" t="n">
+        <v>369.3</v>
+      </c>
+      <c r="F646" t="n">
+        <v>379.7322222222222</v>
+      </c>
+      <c r="G646" t="n">
+        <v>376.8722222222222</v>
+      </c>
+      <c r="H646" t="n">
+        <v>383.0271428571429</v>
+      </c>
+      <c r="I646" t="n">
+        <v>359.6733333333333</v>
+      </c>
+      <c r="J646" t="n">
+        <v>333.1671428571428</v>
+      </c>
+      <c r="K646" t="n">
+        <v>333.7571428571428</v>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr"/>
+      <c r="C647" t="n">
+        <v>377.36</v>
+      </c>
+      <c r="D647" t="n">
+        <v>366.7</v>
+      </c>
+      <c r="E647" t="n">
+        <v>370.36</v>
+      </c>
+      <c r="F647" t="n">
+        <v>378.0555555555555</v>
+      </c>
+      <c r="G647" t="n">
+        <v>375.5655555555555</v>
+      </c>
+      <c r="H647" t="n">
+        <v>376.2371428571428</v>
+      </c>
+      <c r="I647" t="n">
+        <v>349.0333333333333</v>
+      </c>
+      <c r="J647" t="n">
+        <v>316.9071428571428</v>
+      </c>
+      <c r="K647" t="n">
+        <v>333.2171428571428</v>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>398.47</v>
+      </c>
+      <c r="C648" t="n">
+        <v>381.76</v>
+      </c>
+      <c r="D648" t="n">
+        <v>368.31</v>
+      </c>
+      <c r="E648" t="n">
+        <v>370.83</v>
+      </c>
+      <c r="F648" t="n">
+        <v>381.9333333333333</v>
+      </c>
+      <c r="G648" t="n">
+        <v>378.2333333333333</v>
+      </c>
+      <c r="H648" t="n">
+        <v>384.8285714285714</v>
+      </c>
+      <c r="I648" t="n">
+        <v>356.08</v>
+      </c>
+      <c r="J648" t="n">
+        <v>339.2985714285714</v>
+      </c>
+      <c r="K648" t="n">
+        <v>339.0085714285714</v>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24807,7 +24959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B667"/>
+  <dimension ref="A1:B671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31485,6 +31637,46 @@
       </c>
       <c r="B667" t="n">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -31658,28 +31850,28 @@
         <v>0.058</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1608887779066879</v>
+        <v>0.1631888874034306</v>
       </c>
       <c r="J2" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K2" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003052479776684547</v>
+        <v>0.003155701284709433</v>
       </c>
       <c r="M2" t="n">
-        <v>12.14666777614785</v>
+        <v>12.13511125711882</v>
       </c>
       <c r="N2" t="n">
-        <v>505.1217638484092</v>
+        <v>503.945790248222</v>
       </c>
       <c r="O2" t="n">
-        <v>22.47491410102404</v>
+        <v>22.44873694104463</v>
       </c>
       <c r="P2" t="n">
-        <v>389.2533571290395</v>
+        <v>389.2317888994062</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31736,28 +31928,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05318416828819731</v>
+        <v>0.06099833171170226</v>
       </c>
       <c r="J3" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K3" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002035801631805279</v>
+        <v>0.002694918639757349</v>
       </c>
       <c r="M3" t="n">
-        <v>7.095041622068913</v>
+        <v>7.091528086239176</v>
       </c>
       <c r="N3" t="n">
-        <v>79.2330678603151</v>
+        <v>79.1061496793909</v>
       </c>
       <c r="O3" t="n">
-        <v>8.901295852869687</v>
+        <v>8.894163798772254</v>
       </c>
       <c r="P3" t="n">
-        <v>370.7421028079053</v>
+        <v>370.6646019973769</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31814,28 +32006,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1853172002415523</v>
+        <v>-0.1799457373342973</v>
       </c>
       <c r="J4" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K4" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0235605942863153</v>
+        <v>0.0224370923885483</v>
       </c>
       <c r="M4" t="n">
-        <v>7.278463002400812</v>
+        <v>7.266178743395882</v>
       </c>
       <c r="N4" t="n">
-        <v>80.97054831138402</v>
+        <v>80.67782833866197</v>
       </c>
       <c r="O4" t="n">
-        <v>8.998363646318369</v>
+        <v>8.982083741463445</v>
       </c>
       <c r="P4" t="n">
-        <v>368.4025667947849</v>
+        <v>368.3489640641119</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31892,28 +32084,28 @@
         <v>0.0622</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1470691499385638</v>
+        <v>-0.1418322144037541</v>
       </c>
       <c r="J5" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K5" t="n">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01708404645208872</v>
+        <v>0.01604783791071529</v>
       </c>
       <c r="M5" t="n">
-        <v>6.619679850394982</v>
+        <v>6.609349127698435</v>
       </c>
       <c r="N5" t="n">
-        <v>71.58942877120872</v>
+        <v>71.32362921516565</v>
       </c>
       <c r="O5" t="n">
-        <v>8.461053644269649</v>
+        <v>8.445331800182018</v>
       </c>
       <c r="P5" t="n">
-        <v>368.9250184642342</v>
+        <v>368.8731541604415</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31970,28 +32162,28 @@
         <v>0.0522</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2036948995139951</v>
+        <v>-0.2005160364061536</v>
       </c>
       <c r="J6" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K6" t="n">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03350004264962114</v>
+        <v>0.03280526694552743</v>
       </c>
       <c r="M6" t="n">
-        <v>6.541346876371593</v>
+        <v>6.519501135620961</v>
       </c>
       <c r="N6" t="n">
-        <v>69.201950782135</v>
+        <v>68.8721521546485</v>
       </c>
       <c r="O6" t="n">
-        <v>8.318770989883962</v>
+        <v>8.298924758946095</v>
       </c>
       <c r="P6" t="n">
-        <v>382.0862738863254</v>
+        <v>382.0547886716725</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32048,28 +32240,28 @@
         <v>0.0505</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0371439183617313</v>
+        <v>-0.0397054786580285</v>
       </c>
       <c r="J7" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K7" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001102616759555142</v>
+        <v>0.00126576863362271</v>
       </c>
       <c r="M7" t="n">
-        <v>6.243172392995059</v>
+        <v>6.249648766910142</v>
       </c>
       <c r="N7" t="n">
-        <v>70.77108018883075</v>
+        <v>70.89866627611445</v>
       </c>
       <c r="O7" t="n">
-        <v>8.412554914461525</v>
+        <v>8.420134575890961</v>
       </c>
       <c r="P7" t="n">
-        <v>374.4789979160678</v>
+        <v>374.5046616633537</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32126,28 +32318,28 @@
         <v>0.0396</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1983084494817487</v>
+        <v>-0.1965321607432444</v>
       </c>
       <c r="J8" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K8" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02167684414737858</v>
+        <v>0.0215849777050221</v>
       </c>
       <c r="M8" t="n">
-        <v>7.650638199944551</v>
+        <v>7.618219679650842</v>
       </c>
       <c r="N8" t="n">
-        <v>100.7716881005716</v>
+        <v>100.1073035374785</v>
       </c>
       <c r="O8" t="n">
-        <v>10.03851025304909</v>
+        <v>10.00536373838945</v>
       </c>
       <c r="P8" t="n">
-        <v>385.8407945699642</v>
+        <v>385.8231112209504</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32204,28 +32396,28 @@
         <v>0.0319</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2871035240806779</v>
+        <v>-0.3094222018388174</v>
       </c>
       <c r="J9" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K9" t="n">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0299054575473694</v>
+        <v>0.03424760982035469</v>
       </c>
       <c r="M9" t="n">
-        <v>9.275409473803446</v>
+        <v>9.331139936821424</v>
       </c>
       <c r="N9" t="n">
-        <v>150.9079089485398</v>
+        <v>153.4675353999038</v>
       </c>
       <c r="O9" t="n">
-        <v>12.28445802420847</v>
+        <v>12.38820145944938</v>
       </c>
       <c r="P9" t="n">
-        <v>369.5080644247327</v>
+        <v>369.7313332876333</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32282,28 +32474,28 @@
         <v>0.0391</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4569198349312463</v>
+        <v>-0.4833233738097341</v>
       </c>
       <c r="J10" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K10" t="n">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05174335059197943</v>
+        <v>0.05713873614421283</v>
       </c>
       <c r="M10" t="n">
-        <v>11.40613326757257</v>
+        <v>11.4932003304047</v>
       </c>
       <c r="N10" t="n">
-        <v>213.3038985666924</v>
+        <v>216.0786925927216</v>
       </c>
       <c r="O10" t="n">
-        <v>14.60492720169095</v>
+        <v>14.69961538927878</v>
       </c>
       <c r="P10" t="n">
-        <v>366.5505225152104</v>
+        <v>366.8164168025689</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32360,28 +32552,28 @@
         <v>0.0416</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.555594161181064</v>
+        <v>-0.58840273444239</v>
       </c>
       <c r="J11" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K11" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06945112195250769</v>
+        <v>0.07712966586661951</v>
       </c>
       <c r="M11" t="n">
-        <v>12.32038094194889</v>
+        <v>12.39419064070793</v>
       </c>
       <c r="N11" t="n">
-        <v>229.5620985403544</v>
+        <v>231.7286243190173</v>
       </c>
       <c r="O11" t="n">
-        <v>15.15130682615709</v>
+        <v>15.22263526197147</v>
       </c>
       <c r="P11" t="n">
-        <v>370.2540633021403</v>
+        <v>370.5832895668299</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32419,7 +32611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L644"/>
+  <dimension ref="A1:L648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66939,6 +67131,222 @@
         </is>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr"/>
+      <c r="C645" t="inlineStr"/>
+      <c r="D645" t="inlineStr"/>
+      <c r="E645" t="inlineStr"/>
+      <c r="F645" t="inlineStr"/>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>-41.1061101360233,174.83532112724356</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>-41.105473178087834,174.83549762955946</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>-41.10492683576172,174.8363347328932</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>-41.103534016765636,174.83627647423836</t>
+        </is>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr"/>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-41.10747013840706,174.83251014941072</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-41.10731711347602,174.83330176627754</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-41.106967298178326,174.83403278746198</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-41.10652254139088,174.83461920874416</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-41.106007858655005,174.8351100507205</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>-41.10547572992517,174.83550731487722</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>-41.10489154645647,174.83586992425808</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>-41.104227231393864,174.8362877217042</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>-41.10353927875214,174.83620551713295</t>
+        </is>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr"/>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-41.10748849169336,174.83251702177103</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>-41.10735345429588,174.8333280554433</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>-41.10695962102146,174.834025287127</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>-41.1065326951505,174.83463398346714</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>-41.10601420613544,174.8351231503898</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>-41.10549584412964,174.83558365705073</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>-41.10490111621751,174.8359959686607</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>-41.1042273745276,174.83648130803905</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>-41.10353880427136,174.83621191546024</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>-41.10739618936208,174.83162187434672</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-41.10745036726971,174.83250274614295</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-41.10734073500971,174.83331885423192</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>-41.10695621699892,174.83402196150732</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>-41.10650921163448,174.83459981264357</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>-41.10600124669454,174.83509640523422</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>-41.10547039349489,174.83548706083872</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>-41.10489477836497,174.83591249188177</t>
+        </is>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>-41.10422717733556,174.83621472288306</t>
+        </is>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>-41.103543892996456,174.83614329424077</t>
+        </is>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0342/nzd0342.xlsx
+++ b/data/nzd0342/nzd0342.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L648"/>
+  <dimension ref="A1:L651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24948,6 +24948,130 @@
         </is>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:06:35+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>478.83</v>
+      </c>
+      <c r="C649" t="n">
+        <v>375.009090909091</v>
+      </c>
+      <c r="D649" t="n">
+        <v>364.58</v>
+      </c>
+      <c r="E649" t="n">
+        <v>365.42</v>
+      </c>
+      <c r="F649" t="n">
+        <v>371.6022222222222</v>
+      </c>
+      <c r="G649" t="n">
+        <v>371.4922222222222</v>
+      </c>
+      <c r="H649" t="n">
+        <v>375.1128571428572</v>
+      </c>
+      <c r="I649" t="n">
+        <v>340.8333333333333</v>
+      </c>
+      <c r="J649" t="n">
+        <v>314.5428571428571</v>
+      </c>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:52+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>480.72</v>
+      </c>
+      <c r="C650" t="n">
+        <v>373.3254545454545</v>
+      </c>
+      <c r="D650" t="n">
+        <v>363.18</v>
+      </c>
+      <c r="E650" t="n">
+        <v>357.29</v>
+      </c>
+      <c r="F650" t="n">
+        <v>369.5933333333333</v>
+      </c>
+      <c r="G650" t="n">
+        <v>370.6233333333333</v>
+      </c>
+      <c r="H650" t="n">
+        <v>371.1185714285714</v>
+      </c>
+      <c r="I650" t="n">
+        <v>337.76</v>
+      </c>
+      <c r="J650" t="n">
+        <v>324.7685714285714</v>
+      </c>
+      <c r="K650" t="n">
+        <v>325.9585714285714</v>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>484.81</v>
+      </c>
+      <c r="C651" t="n">
+        <v>385.1927272727273</v>
+      </c>
+      <c r="D651" t="n">
+        <v>369.74</v>
+      </c>
+      <c r="E651" t="n">
+        <v>375.01</v>
+      </c>
+      <c r="F651" t="n">
+        <v>382.0233333333333</v>
+      </c>
+      <c r="G651" t="n">
+        <v>378.1133333333333</v>
+      </c>
+      <c r="H651" t="n">
+        <v>382.1014285714285</v>
+      </c>
+      <c r="I651" t="n">
+        <v>364.59</v>
+      </c>
+      <c r="J651" t="n">
+        <v>351.1514285714285</v>
+      </c>
+      <c r="K651" t="n">
+        <v>347.3014285714286</v>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24959,7 +25083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B671"/>
+  <dimension ref="A1:B674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31677,6 +31801,36 @@
       </c>
       <c r="B671" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -31850,28 +32004,28 @@
         <v>0.058</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1631888874034306</v>
+        <v>0.2813457711639422</v>
       </c>
       <c r="J2" t="n">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K2" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003155701284709433</v>
+        <v>0.008528823096347948</v>
       </c>
       <c r="M2" t="n">
-        <v>12.13511125711882</v>
+        <v>13.04546544020278</v>
       </c>
       <c r="N2" t="n">
-        <v>503.945790248222</v>
+        <v>555.5661966364845</v>
       </c>
       <c r="O2" t="n">
-        <v>22.44873694104463</v>
+        <v>23.5704517698852</v>
       </c>
       <c r="P2" t="n">
-        <v>389.2317888994062</v>
+        <v>388.1204138540034</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31928,28 +32082,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06099833171170226</v>
+        <v>0.06684495470514434</v>
       </c>
       <c r="J3" t="n">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K3" t="n">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002694918639757349</v>
+        <v>0.003256586595124955</v>
       </c>
       <c r="M3" t="n">
-        <v>7.091528086239176</v>
+        <v>7.078496454050664</v>
       </c>
       <c r="N3" t="n">
-        <v>79.1061496793909</v>
+        <v>78.98631861383319</v>
       </c>
       <c r="O3" t="n">
-        <v>8.894163798772254</v>
+        <v>8.887424745888609</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6646019973769</v>
+        <v>370.6063492852093</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32006,28 +32160,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1799457373342973</v>
+        <v>-0.177721606575152</v>
       </c>
       <c r="J4" t="n">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K4" t="n">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0224370923885483</v>
+        <v>0.02211223021557462</v>
       </c>
       <c r="M4" t="n">
-        <v>7.266178743395882</v>
+        <v>7.238832329567652</v>
       </c>
       <c r="N4" t="n">
-        <v>80.67782833866197</v>
+        <v>80.28992235133259</v>
       </c>
       <c r="O4" t="n">
-        <v>8.982083741463445</v>
+        <v>8.960464404891779</v>
       </c>
       <c r="P4" t="n">
-        <v>368.3489640641119</v>
+        <v>368.3266581758296</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32084,28 +32238,28 @@
         <v>0.0622</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1418322144037541</v>
+        <v>-0.1410917247578066</v>
       </c>
       <c r="J5" t="n">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K5" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01604783791071529</v>
+        <v>0.01598665498355856</v>
       </c>
       <c r="M5" t="n">
-        <v>6.609349127698435</v>
+        <v>6.605582689425392</v>
       </c>
       <c r="N5" t="n">
-        <v>71.32362921516565</v>
+        <v>71.21855817840722</v>
       </c>
       <c r="O5" t="n">
-        <v>8.445331800182018</v>
+        <v>8.439108849778348</v>
       </c>
       <c r="P5" t="n">
-        <v>368.8731541604415</v>
+        <v>368.8657564180712</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32162,28 +32316,28 @@
         <v>0.0522</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2005160364061536</v>
+        <v>-0.2029969503107563</v>
       </c>
       <c r="J6" t="n">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K6" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03280526694552743</v>
+        <v>0.03384614059079205</v>
       </c>
       <c r="M6" t="n">
-        <v>6.519501135620961</v>
+        <v>6.517390231834686</v>
       </c>
       <c r="N6" t="n">
-        <v>68.8721521546485</v>
+        <v>68.68167572110528</v>
       </c>
       <c r="O6" t="n">
-        <v>8.298924758946095</v>
+        <v>8.287440842691144</v>
       </c>
       <c r="P6" t="n">
-        <v>382.0547886716725</v>
+        <v>382.0794015843023</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32240,28 +32394,28 @@
         <v>0.0505</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0397054786580285</v>
+        <v>-0.03976503494266249</v>
       </c>
       <c r="J7" t="n">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K7" t="n">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00126576863362271</v>
+        <v>0.001281816264823377</v>
       </c>
       <c r="M7" t="n">
-        <v>6.249648766910142</v>
+        <v>6.232275463511062</v>
       </c>
       <c r="N7" t="n">
-        <v>70.89866627611445</v>
+        <v>70.56263507637736</v>
       </c>
       <c r="O7" t="n">
-        <v>8.420134575890961</v>
+        <v>8.400156848319998</v>
       </c>
       <c r="P7" t="n">
-        <v>374.5046616633537</v>
+        <v>374.5052301195021</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32318,28 +32472,28 @@
         <v>0.0396</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1965321607432444</v>
+        <v>-0.2012672607096242</v>
       </c>
       <c r="J8" t="n">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K8" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0215849777050221</v>
+        <v>0.02280266382502649</v>
       </c>
       <c r="M8" t="n">
-        <v>7.618219679650842</v>
+        <v>7.609336992942556</v>
       </c>
       <c r="N8" t="n">
-        <v>100.1073035374785</v>
+        <v>99.77646891922268</v>
       </c>
       <c r="O8" t="n">
-        <v>10.00536373838945</v>
+        <v>9.98881719320274</v>
       </c>
       <c r="P8" t="n">
-        <v>385.8231112209504</v>
+        <v>385.8704131834132</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32396,28 +32550,28 @@
         <v>0.0319</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3094222018388174</v>
+        <v>-0.3241088283449478</v>
       </c>
       <c r="J9" t="n">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K9" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03424760982035469</v>
+        <v>0.0373947157187603</v>
       </c>
       <c r="M9" t="n">
-        <v>9.331139936821424</v>
+        <v>9.374845936859474</v>
       </c>
       <c r="N9" t="n">
-        <v>153.4675353999038</v>
+        <v>154.5220629841997</v>
       </c>
       <c r="O9" t="n">
-        <v>12.38820145944938</v>
+        <v>12.43069036635535</v>
       </c>
       <c r="P9" t="n">
-        <v>369.7313332876333</v>
+        <v>369.8788356165004</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32474,28 +32628,28 @@
         <v>0.0391</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4833233738097341</v>
+        <v>-0.5085823291041053</v>
       </c>
       <c r="J10" t="n">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K10" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05713873614421283</v>
+        <v>0.06229205563220352</v>
       </c>
       <c r="M10" t="n">
-        <v>11.4932003304047</v>
+        <v>11.57438068611207</v>
       </c>
       <c r="N10" t="n">
-        <v>216.0786925927216</v>
+        <v>219.4427257397429</v>
       </c>
       <c r="O10" t="n">
-        <v>14.69961538927878</v>
+        <v>14.81359935126311</v>
       </c>
       <c r="P10" t="n">
-        <v>366.8164168025689</v>
+        <v>367.0715544850074</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32552,28 +32706,28 @@
         <v>0.0416</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.58840273444239</v>
+        <v>-0.6020164530867889</v>
       </c>
       <c r="J11" t="n">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K11" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07712966586661951</v>
+        <v>0.08045663132367009</v>
       </c>
       <c r="M11" t="n">
-        <v>12.39419064070793</v>
+        <v>12.41682679020893</v>
       </c>
       <c r="N11" t="n">
-        <v>231.7286243190173</v>
+        <v>232.6083072681031</v>
       </c>
       <c r="O11" t="n">
-        <v>15.22263526197147</v>
+        <v>15.25150180369472</v>
       </c>
       <c r="P11" t="n">
-        <v>370.5832895668299</v>
+        <v>370.7205533577222</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32611,7 +32765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L648"/>
+  <dimension ref="A1:L651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67347,6 +67501,188 @@
         </is>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:06:35+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>-41.10668238912112,174.83146433280186</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-41.107508861477406,174.8325246492108</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>-41.10737020267144,174.83334017132964</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>-41.10699539946498,174.83406024153348</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>-41.106571776003754,174.83469085003767</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>-41.106033993424255,174.8351639866199</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>-41.105499174627276,174.83559629776423</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>-41.10490849131461,174.8360931081655</t>
+        </is>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>-41.104227395312876,174.83650945646409</t>
+        </is>
+      </c>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:52+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>-41.106665601131894,174.83146062760088</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>-41.10752344958222,174.83253011171126</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>-41.10738126291865,174.83334817239006</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>-41.107054281776854,174.83411776779593</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>-41.10658394166275,174.83470855231718</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>-41.10603821427879,174.835172697461</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>-41.10551100698097,174.83564120684017</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>-41.10491125545581,174.83612951574082</t>
+        </is>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>-41.10422730536557,174.83638771239814</t>
+        </is>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>-41.10353242636184,174.83629792047924</t>
+        </is>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>-41.106629271567186,174.8314526094745</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>-41.107420623916084,174.83249160880544</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-41.107329437754814,174.83331068173044</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>-41.10692594292132,174.83399238473484</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-41.10650866660146,174.83459901956746</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>-41.10600182962664,174.83509760826473</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>-41.1054784721972,174.83551772298068</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>-41.104887124292574,174.83581168006643</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>-41.1042270727025,174.83607360656475</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>-41.10355117956829,174.83604503418542</t>
+        </is>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0342/nzd0342.xlsx
+++ b/data/nzd0342/nzd0342.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L651"/>
+  <dimension ref="A1:L653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24954,9 +24954,7 @@
           <t>2025-07-01 22:06:35+00:00</t>
         </is>
       </c>
-      <c r="B649" t="n">
-        <v>478.83</v>
-      </c>
+      <c r="B649" t="inlineStr"/>
       <c r="C649" t="n">
         <v>375.009090909091</v>
       </c>
@@ -24994,9 +24992,7 @@
           <t>2025-07-18 22:00:52+00:00</t>
         </is>
       </c>
-      <c r="B650" t="n">
-        <v>480.72</v>
-      </c>
+      <c r="B650" t="inlineStr"/>
       <c r="C650" t="n">
         <v>373.3254545454545</v>
       </c>
@@ -25036,9 +25032,7 @@
           <t>2025-07-25 22:06:42+00:00</t>
         </is>
       </c>
-      <c r="B651" t="n">
-        <v>484.81</v>
-      </c>
+      <c r="B651" t="inlineStr"/>
       <c r="C651" t="n">
         <v>385.1927272727273</v>
       </c>
@@ -25067,6 +25061,88 @@
         <v>347.3014285714286</v>
       </c>
       <c r="L651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:56+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>399.4</v>
+      </c>
+      <c r="C652" t="n">
+        <v>381.8263636363636</v>
+      </c>
+      <c r="D652" t="n">
+        <v>368.47</v>
+      </c>
+      <c r="E652" t="n">
+        <v>369.18</v>
+      </c>
+      <c r="F652" t="n">
+        <v>379.3233333333333</v>
+      </c>
+      <c r="G652" t="n">
+        <v>375.5433333333333</v>
+      </c>
+      <c r="H652" t="n">
+        <v>378.2</v>
+      </c>
+      <c r="I652" t="n">
+        <v>357.18</v>
+      </c>
+      <c r="J652" t="n">
+        <v>345.75</v>
+      </c>
+      <c r="K652" t="n">
+        <v>350.66</v>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:57+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr"/>
+      <c r="C653" t="n">
+        <v>382.1654545454546</v>
+      </c>
+      <c r="D653" t="n">
+        <v>373.75</v>
+      </c>
+      <c r="E653" t="n">
+        <v>369.98</v>
+      </c>
+      <c r="F653" t="n">
+        <v>387.19</v>
+      </c>
+      <c r="G653" t="n">
+        <v>384.56</v>
+      </c>
+      <c r="H653" t="n">
+        <v>394.7257142857143</v>
+      </c>
+      <c r="I653" t="n">
+        <v>374.9</v>
+      </c>
+      <c r="J653" t="n">
+        <v>362.9657142857143</v>
+      </c>
+      <c r="K653" t="n">
+        <v>356.1757142857143</v>
+      </c>
+      <c r="L653" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25083,7 +25159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B674"/>
+  <dimension ref="A1:B676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31831,6 +31907,26 @@
       </c>
       <c r="B674" t="n">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -32004,28 +32100,28 @@
         <v>0.058</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2813457711639422</v>
+        <v>0.1658898434846473</v>
       </c>
       <c r="J2" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K2" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008528823096347948</v>
+        <v>0.003276826387021758</v>
       </c>
       <c r="M2" t="n">
-        <v>13.04546544020278</v>
+        <v>12.12663240750709</v>
       </c>
       <c r="N2" t="n">
-        <v>555.5661966364845</v>
+        <v>502.7989392718947</v>
       </c>
       <c r="O2" t="n">
-        <v>23.5704517698852</v>
+        <v>22.42317861659882</v>
       </c>
       <c r="P2" t="n">
-        <v>388.1204138540034</v>
+        <v>389.2063448394363</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32082,28 +32178,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06684495470514434</v>
+        <v>0.07352974181306692</v>
       </c>
       <c r="J3" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K3" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003256586595124955</v>
+        <v>0.003949128641008048</v>
       </c>
       <c r="M3" t="n">
-        <v>7.078496454050664</v>
+        <v>7.082939247633163</v>
       </c>
       <c r="N3" t="n">
-        <v>78.98631861383319</v>
+        <v>79.03644231236397</v>
       </c>
       <c r="O3" t="n">
-        <v>8.887424745888609</v>
+        <v>8.890244221187851</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6063492852093</v>
+        <v>370.5395437226281</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32160,28 +32256,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.177721606575152</v>
+        <v>-0.1726442179858426</v>
       </c>
       <c r="J4" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K4" t="n">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02211223021557462</v>
+        <v>0.02098110598264191</v>
       </c>
       <c r="M4" t="n">
-        <v>7.238832329567652</v>
+        <v>7.238897171452223</v>
       </c>
       <c r="N4" t="n">
-        <v>80.28992235133259</v>
+        <v>80.21807809633307</v>
       </c>
       <c r="O4" t="n">
-        <v>8.960464404891779</v>
+        <v>8.956454549448296</v>
       </c>
       <c r="P4" t="n">
-        <v>368.3266581758296</v>
+        <v>368.2755552196086</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32238,28 +32334,28 @@
         <v>0.0622</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1410917247578066</v>
+        <v>-0.1380961759805079</v>
       </c>
       <c r="J5" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K5" t="n">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01598665498355856</v>
+        <v>0.01541879569575832</v>
       </c>
       <c r="M5" t="n">
-        <v>6.605582689425392</v>
+        <v>6.596265000887682</v>
       </c>
       <c r="N5" t="n">
-        <v>71.21855817840722</v>
+        <v>71.0207255784801</v>
       </c>
       <c r="O5" t="n">
-        <v>8.439108849778348</v>
+        <v>8.427379520258958</v>
       </c>
       <c r="P5" t="n">
-        <v>368.8657564180712</v>
+        <v>368.8358530757914</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32316,28 +32412,28 @@
         <v>0.0522</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2029969503107563</v>
+        <v>-0.1986180930487862</v>
       </c>
       <c r="J6" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K6" t="n">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03384614059079205</v>
+        <v>0.03257263711076186</v>
       </c>
       <c r="M6" t="n">
-        <v>6.517390231834686</v>
+        <v>6.514439952695732</v>
       </c>
       <c r="N6" t="n">
-        <v>68.68167572110528</v>
+        <v>68.63654284043004</v>
       </c>
       <c r="O6" t="n">
-        <v>8.287440842691144</v>
+        <v>8.284717426709859</v>
       </c>
       <c r="P6" t="n">
-        <v>382.0794015843023</v>
+        <v>382.0356355048714</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32394,28 +32490,28 @@
         <v>0.0505</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03976503494266249</v>
+        <v>-0.03533373010731478</v>
       </c>
       <c r="J7" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K7" t="n">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001281816264823377</v>
+        <v>0.001015995982123541</v>
       </c>
       <c r="M7" t="n">
-        <v>6.232275463511062</v>
+        <v>6.23162573171911</v>
       </c>
       <c r="N7" t="n">
-        <v>70.56263507637736</v>
+        <v>70.53506906433427</v>
       </c>
       <c r="O7" t="n">
-        <v>8.400156848319998</v>
+        <v>8.398515884627132</v>
       </c>
       <c r="P7" t="n">
-        <v>374.5052301195021</v>
+        <v>374.4602536788596</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32472,28 +32568,28 @@
         <v>0.0396</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2012672607096242</v>
+        <v>-0.1972659049559139</v>
       </c>
       <c r="J8" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K8" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02280266382502649</v>
+        <v>0.02199701185618963</v>
       </c>
       <c r="M8" t="n">
-        <v>7.609336992942556</v>
+        <v>7.609402426323121</v>
       </c>
       <c r="N8" t="n">
-        <v>99.77646891922268</v>
+        <v>99.78492115223811</v>
       </c>
       <c r="O8" t="n">
-        <v>9.98881719320274</v>
+        <v>9.989240269021369</v>
       </c>
       <c r="P8" t="n">
-        <v>385.8704131834132</v>
+        <v>385.8301374057104</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32550,28 +32646,28 @@
         <v>0.0319</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3241088283449478</v>
+        <v>-0.3208727421111179</v>
       </c>
       <c r="J9" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K9" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0373947157187603</v>
+        <v>0.03685133915455485</v>
       </c>
       <c r="M9" t="n">
-        <v>9.374845936859474</v>
+        <v>9.371280845807053</v>
       </c>
       <c r="N9" t="n">
-        <v>154.5220629841997</v>
+        <v>154.3113099497627</v>
       </c>
       <c r="O9" t="n">
-        <v>12.43069036635535</v>
+        <v>12.42221034879714</v>
       </c>
       <c r="P9" t="n">
-        <v>369.8788356165004</v>
+        <v>369.8460452047942</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32628,28 +32724,28 @@
         <v>0.0391</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5085823291041053</v>
+        <v>-0.5081955022531949</v>
       </c>
       <c r="J10" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K10" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06229205563220352</v>
+        <v>0.06255795778801931</v>
       </c>
       <c r="M10" t="n">
-        <v>11.57438068611207</v>
+        <v>11.56315384173412</v>
       </c>
       <c r="N10" t="n">
-        <v>219.4427257397429</v>
+        <v>218.8987116035426</v>
       </c>
       <c r="O10" t="n">
-        <v>14.81359935126311</v>
+        <v>14.79522597338556</v>
       </c>
       <c r="P10" t="n">
-        <v>367.0715544850074</v>
+        <v>367.0674980674671</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32706,28 +32802,28 @@
         <v>0.0416</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6020164530867889</v>
+        <v>-0.6031947870857138</v>
       </c>
       <c r="J11" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K11" t="n">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08045663132367009</v>
+        <v>0.08130899644718526</v>
       </c>
       <c r="M11" t="n">
-        <v>12.41682679020893</v>
+        <v>12.37949838421412</v>
       </c>
       <c r="N11" t="n">
-        <v>232.6083072681031</v>
+        <v>231.7503476298094</v>
       </c>
       <c r="O11" t="n">
-        <v>15.25150180369472</v>
+        <v>15.22334876529502</v>
       </c>
       <c r="P11" t="n">
-        <v>370.7205533577222</v>
+        <v>370.7324266361726</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32765,7 +32861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L651"/>
+  <dimension ref="A1:L653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67507,11 +67603,7 @@
           <t>2025-07-01 22:06:35+00:00</t>
         </is>
       </c>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t>-41.10668238912112,174.83146433280186</t>
-        </is>
-      </c>
+      <c r="B649" t="inlineStr"/>
       <c r="C649" t="inlineStr">
         <is>
           <t>-41.107508861477406,174.8325246492108</t>
@@ -67565,11 +67657,7 @@
           <t>2025-07-18 22:00:52+00:00</t>
         </is>
       </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>-41.106665601131894,174.83146062760088</t>
-        </is>
-      </c>
+      <c r="B650" t="inlineStr"/>
       <c r="C650" t="inlineStr">
         <is>
           <t>-41.10752344958222,174.83253011171126</t>
@@ -67627,11 +67715,7 @@
           <t>2025-07-25 22:06:42+00:00</t>
         </is>
       </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t>-41.106629271567186,174.8314526094745</t>
-        </is>
-      </c>
+      <c r="B651" t="inlineStr"/>
       <c r="C651" t="inlineStr">
         <is>
           <t>-41.107420623916084,174.83249160880544</t>
@@ -67678,6 +67762,126 @@
         </is>
       </c>
       <c r="L651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:56+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>-41.1073879286098,174.83162005110964</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>-41.10744979225256,174.83250253082886</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-41.107339470981216,174.83331793982603</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>-41.10696816729041,174.83403363655663</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-41.10652501758957,174.83462281185712</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>-41.106014314085776,174.83512337317333</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>-41.105490029509035,174.83556158800627</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>-41.10489378900691,174.83589946097618</t>
+        </is>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>-41.104227120405945,174.83613791424293</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>-41.10355413057478,174.8360052392791</t>
+        </is>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:57+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr"/>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>-41.10744685415122,174.8325014306624</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>-41.10729775803656,174.8332877644513</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>-41.10696237320984,174.83402797592615</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>-41.10647737765909,174.83455349114476</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>-41.105970513200795,174.83503297882183</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>-41.10544107480283,174.83537578414766</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>-41.104877851143534,174.83568954498</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>-41.10422696823784,174.83593294945968</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>-41.103558976923686,174.8359398848963</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0342/nzd0342.xlsx
+++ b/data/nzd0342/nzd0342.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L653"/>
+  <dimension ref="A1:L654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25148,6 +25148,48 @@
         </is>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-06 22:01:22+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>377.67</v>
+      </c>
+      <c r="C654" t="n">
+        <v>355.4445454545454</v>
+      </c>
+      <c r="D654" t="n">
+        <v>349.56</v>
+      </c>
+      <c r="E654" t="n">
+        <v>350.99</v>
+      </c>
+      <c r="F654" t="n">
+        <v>369.99</v>
+      </c>
+      <c r="G654" t="n">
+        <v>361.71</v>
+      </c>
+      <c r="H654" t="n">
+        <v>374.27</v>
+      </c>
+      <c r="I654" t="n">
+        <v>361.36</v>
+      </c>
+      <c r="J654" t="n">
+        <v>360.02</v>
+      </c>
+      <c r="K654" t="n">
+        <v>358.34</v>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25159,7 +25201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B676"/>
+  <dimension ref="A1:B677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31927,6 +31969,16 @@
       </c>
       <c r="B676" t="n">
         <v>0.36</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2025-10-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -32861,7 +32913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L653"/>
+  <dimension ref="A1:L654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67887,6 +67939,68 @@
         </is>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-06 22:01:22+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-41.10758094595928,174.8316626522516</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>-41.107678381220374,174.83258812586413</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>-41.107488863290655,174.8334260114208</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-41.107099910114975,174.83416234541383</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>-41.106581539483635,174.83470505689974</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>-41.106081513081946,174.83526205605048</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>-41.105501671441594,174.8356057742847</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>-41.10489002943274,174.83584994353802</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>-41.10422699430062,174.83596802019187</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>-41.10356087855012,174.83591424078816</t>
+        </is>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0342/nzd0342.xlsx
+++ b/data/nzd0342/nzd0342.xlsx
@@ -32152,28 +32152,28 @@
         <v>0.058</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1658898434846473</v>
+        <v>0.1585848632864846</v>
       </c>
       <c r="J2" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K2" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003276826387021758</v>
+        <v>0.003007517022197592</v>
       </c>
       <c r="M2" t="n">
-        <v>12.12663240750709</v>
+        <v>12.11758551102734</v>
       </c>
       <c r="N2" t="n">
-        <v>502.7989392718947</v>
+        <v>502.1828507959715</v>
       </c>
       <c r="O2" t="n">
-        <v>22.42317861659882</v>
+        <v>22.40943664610897</v>
       </c>
       <c r="P2" t="n">
-        <v>389.2063448394363</v>
+        <v>389.2758391424491</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32230,28 +32230,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07352974181306692</v>
+        <v>0.06758220303658713</v>
       </c>
       <c r="J3" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K3" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003949128641008048</v>
+        <v>0.003327542172677056</v>
       </c>
       <c r="M3" t="n">
-        <v>7.082939247633163</v>
+        <v>7.106401020146522</v>
       </c>
       <c r="N3" t="n">
-        <v>79.03644231236397</v>
+        <v>79.43454817864323</v>
       </c>
       <c r="O3" t="n">
-        <v>8.890244221187851</v>
+        <v>8.912606138422321</v>
       </c>
       <c r="P3" t="n">
-        <v>370.5395437226281</v>
+        <v>370.5994541721502</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32308,28 +32308,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1726442179858426</v>
+        <v>-0.1775468560300242</v>
       </c>
       <c r="J4" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K4" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02098110598264191</v>
+        <v>0.02214020047008514</v>
       </c>
       <c r="M4" t="n">
-        <v>7.238897171452223</v>
+        <v>7.252418811321892</v>
       </c>
       <c r="N4" t="n">
-        <v>80.21807809633307</v>
+        <v>80.44487253729733</v>
       </c>
       <c r="O4" t="n">
-        <v>8.956454549448296</v>
+        <v>8.96910656293576</v>
       </c>
       <c r="P4" t="n">
-        <v>368.2755552196086</v>
+        <v>368.3252554512774</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32386,28 +32386,28 @@
         <v>0.0622</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1380961759805079</v>
+        <v>-0.1429987863381733</v>
       </c>
       <c r="J5" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K5" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01541879569575832</v>
+        <v>0.01648687435166363</v>
       </c>
       <c r="M5" t="n">
-        <v>6.596265000887682</v>
+        <v>6.612014445669982</v>
       </c>
       <c r="N5" t="n">
-        <v>71.0207255784801</v>
+        <v>71.26811711115107</v>
       </c>
       <c r="O5" t="n">
-        <v>8.427379520258958</v>
+        <v>8.442044604901769</v>
       </c>
       <c r="P5" t="n">
-        <v>368.8358530757914</v>
+        <v>368.8851810097428</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32464,28 +32464,28 @@
         <v>0.0522</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1986180930487862</v>
+        <v>-0.2009543435698262</v>
       </c>
       <c r="J6" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K6" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03257263711076186</v>
+        <v>0.03339266400880181</v>
       </c>
       <c r="M6" t="n">
-        <v>6.514439952695732</v>
+        <v>6.51639312320075</v>
       </c>
       <c r="N6" t="n">
-        <v>68.63654284043004</v>
+        <v>68.59475945956815</v>
       </c>
       <c r="O6" t="n">
-        <v>8.284717426709859</v>
+        <v>8.282195328508507</v>
       </c>
       <c r="P6" t="n">
-        <v>382.0356355048714</v>
+        <v>382.0591456395052</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32542,28 +32542,28 @@
         <v>0.0505</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03533373010731478</v>
+        <v>-0.03934141800584242</v>
       </c>
       <c r="J7" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K7" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001015995982123541</v>
+        <v>0.001259082322015104</v>
       </c>
       <c r="M7" t="n">
-        <v>6.23162573171911</v>
+        <v>6.24367261684482</v>
       </c>
       <c r="N7" t="n">
-        <v>70.53506906433427</v>
+        <v>70.66295550547444</v>
       </c>
       <c r="O7" t="n">
-        <v>8.398515884627132</v>
+        <v>8.406126070044063</v>
       </c>
       <c r="P7" t="n">
-        <v>374.4602536788596</v>
+        <v>374.5011973462704</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32620,28 +32620,28 @@
         <v>0.0396</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1972659049559139</v>
+        <v>-0.1994684339152392</v>
       </c>
       <c r="J8" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K8" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02199701185618963</v>
+        <v>0.0225438284197137</v>
       </c>
       <c r="M8" t="n">
-        <v>7.609402426323121</v>
+        <v>7.608370636573132</v>
       </c>
       <c r="N8" t="n">
-        <v>99.78492115223811</v>
+        <v>99.67425180953671</v>
       </c>
       <c r="O8" t="n">
-        <v>9.989240269021369</v>
+        <v>9.983699304843707</v>
       </c>
       <c r="P8" t="n">
-        <v>385.8301374057104</v>
+        <v>385.8524139137473</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32698,28 +32698,28 @@
         <v>0.0319</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3208727421111179</v>
+        <v>-0.3209033055501658</v>
       </c>
       <c r="J9" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K9" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03685133915455485</v>
+        <v>0.03699115433088307</v>
       </c>
       <c r="M9" t="n">
-        <v>9.371280845807053</v>
+        <v>9.353507969069833</v>
       </c>
       <c r="N9" t="n">
-        <v>154.3113099497627</v>
+        <v>154.0157087292489</v>
       </c>
       <c r="O9" t="n">
-        <v>12.42221034879714</v>
+        <v>12.41030655258962</v>
       </c>
       <c r="P9" t="n">
-        <v>369.8460452047942</v>
+        <v>369.8463560400487</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32776,28 +32776,28 @@
         <v>0.0391</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5081955022531949</v>
+        <v>-0.5059979069184863</v>
       </c>
       <c r="J10" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K10" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06255795778801931</v>
+        <v>0.06225021717809387</v>
       </c>
       <c r="M10" t="n">
-        <v>11.56315384173412</v>
+        <v>11.55221053367891</v>
       </c>
       <c r="N10" t="n">
-        <v>218.8987116035426</v>
+        <v>218.5610214304014</v>
       </c>
       <c r="O10" t="n">
-        <v>14.79522597338556</v>
+        <v>14.78380943567663</v>
       </c>
       <c r="P10" t="n">
-        <v>367.0674980674671</v>
+        <v>367.0450271482365</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32854,28 +32854,28 @@
         <v>0.0416</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6031947870857138</v>
+        <v>-0.6019530985478229</v>
       </c>
       <c r="J11" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K11" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08130899644718526</v>
+        <v>0.08128770998093426</v>
       </c>
       <c r="M11" t="n">
-        <v>12.37949838421412</v>
+        <v>12.36229647580989</v>
       </c>
       <c r="N11" t="n">
-        <v>231.7503476298094</v>
+        <v>231.3259216002191</v>
       </c>
       <c r="O11" t="n">
-        <v>15.22334876529502</v>
+        <v>15.20940240772855</v>
       </c>
       <c r="P11" t="n">
-        <v>370.7324266361726</v>
+        <v>370.7197742459113</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">

--- a/data/nzd0342/nzd0342.xlsx
+++ b/data/nzd0342/nzd0342.xlsx
@@ -32143,13 +32143,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0438</v>
+        <v>0.0146</v>
       </c>
       <c r="H2" t="n">
-        <v>0.058</v>
+        <v>0.018</v>
       </c>
       <c r="I2" t="n">
         <v>0.1585848632864846</v>
@@ -32221,13 +32221,13 @@
         <v>0.8884362436506423</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0443</v>
+        <v>0.0496</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0702</v>
+        <v>0.1134</v>
       </c>
       <c r="I3" t="n">
         <v>0.0675989361606379</v>
@@ -32299,13 +32299,13 @@
         <v>0.7796027490364844</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0425</v>
+        <v>0.047</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0569</v>
+        <v>0.0892</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1775468560300243</v>
@@ -32380,10 +32380,10 @@
         <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.045</v>
+        <v>0.0401</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0622</v>
+        <v>0.0742</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1429987863381731</v>
@@ -32458,10 +32458,10 @@
         <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.039</v>
+        <v>0.0381</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0522</v>
+        <v>0.0507</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2009887895140992</v>
@@ -32533,13 +32533,13 @@
         <v>0.445943249192865</v>
       </c>
       <c r="F7" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0392</v>
+        <v>0.0435</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0505</v>
+        <v>0.0654</v>
       </c>
       <c r="I7" t="n">
         <v>-0.03936625792420461</v>
@@ -32611,13 +32611,13 @@
         <v>0.3343794928447829</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0332</v>
+        <v>0.0378</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0396</v>
+        <v>0.0465</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1994308386459701</v>
@@ -32689,13 +32689,13 @@
         <v>0.222847866526756</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0287</v>
+        <v>0.0313</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0319</v>
+        <v>0.0396</v>
       </c>
       <c r="I9" t="n">
         <v>-0.3208983051098305</v>
@@ -32767,13 +32767,13 @@
         <v>0.1112841101784007</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0313</v>
+        <v>0.0414</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0391</v>
+        <v>0.0597</v>
       </c>
       <c r="I10" t="n">
         <v>-0.5059719127341684</v>
@@ -32845,13 +32845,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0309</v>
+        <v>0.0279</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0416</v>
+        <v>0.032</v>
       </c>
       <c r="I11" t="n">
         <v>-0.6019318388208517</v>
